--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF9E659-8112-4811-AF13-B776A122B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7523AC-F0AA-466F-A947-243C4613DE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="645" windowWidth="15570" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,7 +437,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -523,11 +523,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7523AC-F0AA-466F-A947-243C4613DE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A1EDD-0ED5-4245-8DEB-D96FD8C9973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="1050" windowWidth="13890" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,7 +437,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -543,11 +543,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>74</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A1EDD-0ED5-4245-8DEB-D96FD8C9973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FED66-905D-48EE-89A1-9D5C22098256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="1050" windowWidth="13890" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10152" yWindow="1032" windowWidth="12624" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,10 +437,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -563,11 +563,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>68</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -675,7 +685,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FED66-905D-48EE-89A1-9D5C22098256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83ED88-68CF-4192-8FBF-5F485BB0A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10152" yWindow="1032" windowWidth="12624" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,10 +437,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -583,11 +583,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>77</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -685,7 +695,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83ED88-68CF-4192-8FBF-5F485BB0A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A79C1-BDB9-4821-A32A-3290E0E00D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="4875" windowWidth="13515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,7 +437,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -603,11 +603,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1">
+        <v>78</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A79C1-BDB9-4821-A32A-3290E0E00D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C066BB2-7E10-432F-9C91-8CE5A76302D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="4875" windowWidth="13515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="312" yWindow="744" windowWidth="11592" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,10 +437,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -623,11 +623,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1">
+        <v>63</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -705,7 +715,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C066BB2-7E10-432F-9C91-8CE5A76302D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7E9A6-3169-43EA-B40D-92E099A46D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="744" windowWidth="11592" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13830" yWindow="1245" windowWidth="14640" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,10 +437,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -643,11 +643,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1">
+        <v>83</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -715,7 +725,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7E9A6-3169-43EA-B40D-92E099A46D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033773B3-79F0-4AA9-B0B7-2569175D3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13830" yWindow="1245" windowWidth="14640" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="3510" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -437,7 +437,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -663,21 +663,41 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>90</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1">
+        <v>89</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033773B3-79F0-4AA9-B0B7-2569175D3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247F5276-F427-4B6D-8C87-6FEEF9D09E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="3510" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2448" yWindow="3024" windowWidth="17280" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>春</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -437,10 +441,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -658,9 +662,13 @@
       <c r="E11" s="1">
         <v>83</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -678,7 +686,9 @@
       <c r="E12" s="1">
         <v>90</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -745,7 +755,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247F5276-F427-4B6D-8C87-6FEEF9D09E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B2283F-DC47-4E38-9297-212807597EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="3024" windowWidth="17280" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -441,10 +441,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -713,11 +713,21 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1">
+        <v>94</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -755,7 +765,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B2283F-DC47-4E38-9297-212807597EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B2FAD5-4ADC-4316-97AC-EA9EA1487E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -441,10 +441,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -733,11 +733,21 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1">
+        <v>92</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -765,7 +775,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B2FAD5-4ADC-4316-97AC-EA9EA1487E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55189F-56D9-4CF0-BBD8-EF5AEB7A967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="240" windowWidth="15090" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -752,6 +752,24 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -759,7 +777,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B16" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55189F-56D9-4CF0-BBD8-EF5AEB7A967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8030C85-7712-44C0-8C22-C83FDCE0E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="240" windowWidth="15090" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -441,10 +441,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -765,7 +765,9 @@
       <c r="D16" s="1">
         <v>76</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>67</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -793,7 +795,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8030C85-7712-44C0-8C22-C83FDCE0E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8DE8F-D3A7-49F0-A09D-402D3E2EA6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="90" windowWidth="12285" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -441,7 +441,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -768,9 +768,15 @@
       <c r="E16" s="1">
         <v>67</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8DE8F-D3A7-49F0-A09D-402D3E2EA6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA4A03-C79D-4980-9727-447C22984113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="90" windowWidth="12285" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -150,13 +150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -438,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -778,6 +779,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -785,7 +802,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B16" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B17" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA4A03-C79D-4980-9727-447C22984113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA78EBB-158D-441A-8D76-8C43BE75EB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -150,14 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -442,7 +441,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -786,12 +785,18 @@
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4">
+      <c r="C17" s="1">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1">
         <v>82</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA78EBB-158D-441A-8D76-8C43BE75EB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759A6CC6-99A1-4675-833C-130C6F2FEF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -441,7 +441,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -797,7 +797,9 @@
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
   </sheetData>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759A6CC6-99A1-4675-833C-130C6F2FEF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B0ACDA-54FC-4A2D-BD6D-3ADFBAF15586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="240" windowWidth="21555" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -802,6 +802,24 @@
       </c>
       <c r="H17" s="1"/>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -809,7 +827,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B17" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B18" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B0ACDA-54FC-4A2D-BD6D-3ADFBAF15586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F2864-E7B5-4034-995C-7879296D91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="240" windowWidth="21555" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -173,6 +173,1422 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>年度実績!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>午前2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>年度実績!$A$3:$B$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>年度実績!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92CB-40F9-A35A-3E9FC10CF6EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>年度実績!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>午後1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>年度実績!$A$3:$B$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>年度実績!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92CB-40F9-A35A-3E9FC10CF6EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>年度実績!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>午後2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>年度実績!$A$3:$B$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>年度実績!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92CB-40F9-A35A-3E9FC10CF6EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="110773647"/>
+        <c:axId val="110774127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110774127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110774127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110773647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC17B825-D47D-6201-901B-D584A9C3E9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,7 +1857,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -800,7 +2216,9 @@
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
@@ -832,6 +2250,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F2864-E7B5-4034-995C-7879296D91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54159E-36C0-4559-B49B-70BE32E3E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="480" windowWidth="21540" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -150,13 +150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1854,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2238,6 +2239,22 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -2245,7 +2262,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B18" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B19" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54159E-36C0-4559-B49B-70BE32E3E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D512E0-5D47-4CB2-99BC-2B4E2FDA03D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="480" windowWidth="21540" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1050" windowWidth="21540" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -150,14 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -224,9 +223,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>年度実績!$A$3:$B$18</c:f>
+              <c:f>年度実績!$A$3:$B$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>秋</c:v>
@@ -275,6 +274,9 @@
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>春</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -325,6 +327,9 @@
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2024</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -332,10 +337,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>年度実績!$C$3:$C$18</c:f>
+              <c:f>年度実績!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -383,6 +388,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,9 +430,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>年度実績!$A$3:$B$18</c:f>
+              <c:f>年度実績!$A$3:$B$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>秋</c:v>
@@ -473,6 +481,9 @@
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>春</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -523,6 +534,9 @@
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2024</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -530,10 +544,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>年度実績!$D$3:$D$18</c:f>
+              <c:f>年度実績!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -581,6 +595,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,9 +637,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>年度実績!$A$3:$B$18</c:f>
+              <c:f>年度実績!$A$3:$B$19</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>秋</c:v>
@@ -671,6 +688,9 @@
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>春</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -721,6 +741,9 @@
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2024</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -728,10 +751,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>年度実績!$E$3:$E$18</c:f>
+              <c:f>年度実績!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>58</c:v>
                 </c:pt>
@@ -1857,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2240,14 +2263,16 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>2024</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4">
+      <c r="C19" s="1">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1">
         <v>76</v>
       </c>
       <c r="E19" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D512E0-5D47-4CB2-99BC-2B4E2FDA03D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254C6FD-05E9-45B6-82F2-EE83402B61F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1050" windowWidth="21540" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="75" windowWidth="21270" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1878,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2280,6 +2280,22 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -2287,7 +2303,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B19" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B20" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254C6FD-05E9-45B6-82F2-EE83402B61F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC4431-226D-4BAB-8CE8-68CFF4EB73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="75" windowWidth="21270" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="210" windowWidth="13560" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2258,8 +2258,12 @@
         <v>62</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
@@ -2276,8 +2280,12 @@
         <v>76</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
@@ -2287,12 +2295,16 @@
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>64</v>
+      </c>
       <c r="D20" s="1">
         <v>58</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC4431-226D-4BAB-8CE8-68CFF4EB73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33EBB0-5CF9-442C-9B34-44D31E1DD5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="210" windowWidth="13560" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="16395" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1878,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2305,8 +2305,26 @@
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2315,7 +2333,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B20" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B21" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33EBB0-5CF9-442C-9B34-44D31E1DD5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF2C05B-F2EC-48F0-8867-802592D41D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="16395" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="105" windowWidth="16995" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2320,7 +2320,9 @@
       <c r="C21" s="1">
         <v>88</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>69</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF2C05B-F2EC-48F0-8867-802592D41D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4570C5B7-B378-4210-890C-0C3D9EC20055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="105" windowWidth="16995" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1878,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2325,8 +2325,24 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2335,7 +2351,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B21" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B22" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4570C5B7-B378-4210-890C-0C3D9EC20055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED16CA7-AD7E-412A-B796-6682A49E8CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2337,10 +2337,14 @@
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>72</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED16CA7-AD7E-412A-B796-6682A49E8CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610710D9-FDBD-4FFC-A53A-C270E5B02761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2340,7 +2340,9 @@
       <c r="C22" s="1">
         <v>72</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>68</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>9</v>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610710D9-FDBD-4FFC-A53A-C270E5B02761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CB1B3-E2DC-4818-A8E8-A92EA50FE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="480" windowWidth="17055" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1878,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2350,6 +2350,26 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -2357,7 +2377,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B22" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B23" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CB1B3-E2DC-4818-A8E8-A92EA50FE60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9097E9-8312-4C1B-AB8F-ED02E063DF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="480" windowWidth="17055" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2367,7 +2367,9 @@
       <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
   </sheetData>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9097E9-8312-4C1B-AB8F-ED02E063DF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F8EFF1-1A21-45E1-944F-97E71341AEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -223,9 +223,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>年度実績!$A$3:$B$19</c:f>
+              <c:f>年度実績!$A$3:$B$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>秋</c:v>
@@ -277,6 +277,21 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>秋</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -329,6 +344,21 @@
                     <c:v>2023</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>2024</c:v>
                   </c:pt>
                 </c:lvl>
@@ -337,10 +367,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>年度実績!$C$3:$C$19</c:f>
+              <c:f>年度実績!$C$3:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -391,6 +421,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,9 +475,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>年度実績!$A$3:$B$19</c:f>
+              <c:f>年度実績!$A$3:$B$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>秋</c:v>
@@ -484,6 +529,21 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>秋</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -536,6 +596,21 @@
                     <c:v>2023</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>2024</c:v>
                   </c:pt>
                 </c:lvl>
@@ -544,10 +619,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>年度実績!$D$3:$D$19</c:f>
+              <c:f>年度実績!$D$3:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -598,6 +673,18 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,9 +724,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>年度実績!$A$3:$B$19</c:f>
+              <c:f>年度実績!$A$3:$B$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>秋</c:v>
@@ -691,6 +778,21 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>秋</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>春</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>秋</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -743,6 +845,21 @@
                     <c:v>2023</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>2024</c:v>
                   </c:pt>
                 </c:lvl>
@@ -751,10 +868,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>年度実績!$E$3:$E$19</c:f>
+              <c:f>年度実績!$E$3:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>58</c:v>
                 </c:pt>
@@ -1878,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2372,6 +2489,22 @@
       </c>
       <c r="H23" s="1"/>
     </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
@@ -2379,7 +2512,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B23" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F8EFF1-1A21-45E1-944F-97E71341AEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E95D3-3B87-4E30-BACC-44FC78EFE8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="12195" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -685,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,7 +2001,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2499,9 +2502,13 @@
       <c r="C24" s="1">
         <v>92</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>61</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E95D3-3B87-4E30-BACC-44FC78EFE8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C1C6E-555E-4B0C-BCDA-FBCFCE019163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="12195" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="135" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2509,7 +2509,9 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
   </sheetData>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C1C6E-555E-4B0C-BCDA-FBCFCE019163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE38E3C-8FF9-40E8-8AC3-BB751462BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="135" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1725" windowWidth="21600" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\past_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE38E3C-8FF9-40E8-8AC3-BB751462BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB3B582-1831-4A3D-9027-F48ED8E928B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1725" windowWidth="21600" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -1096,6 +1096,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1103,7 +1104,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1998,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2514,14 +2514,282 @@
       </c>
       <c r="H24" s="1"/>
     </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24 B30:B51" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
       <formula1>"春,秋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB3B582-1831-4A3D-9027-F48ED8E928B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771AD7E8-1A75-4E32-A8B0-BD13ECA42556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -83,6 +83,20 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題番号</t>
+    <rPh sb="0" eb="4">
+      <t>モンダイバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -150,13 +164,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1998,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2338,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>2023</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>2023</v>
       </c>
@@ -2386,7 +2401,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>2024</v>
       </c>
@@ -2408,7 +2423,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>2024</v>
       </c>
@@ -2430,7 +2445,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>2024</v>
       </c>
@@ -2450,7 +2465,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>2023</v>
       </c>
@@ -2470,7 +2485,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>2024</v>
       </c>
@@ -2492,7 +2507,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>2024</v>
       </c>
@@ -2514,7 +2529,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3">
@@ -2528,7 +2543,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,8 +2568,20 @@
       <c r="H29" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -2562,15 +2589,26 @@
         <v>8</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <f>J30+L30</f>
+        <v>50</v>
+      </c>
       <c r="E30" s="1">
         <v>100</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>50</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2579,8 +2617,12 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2589,8 +2631,12 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2599,8 +2645,12 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2609,8 +2659,12 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2619,8 +2673,12 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2629,8 +2687,12 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2639,8 +2701,12 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2649,8 +2715,12 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2659,8 +2729,12 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2669,8 +2743,12 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2679,8 +2757,12 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2689,8 +2771,12 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2699,8 +2785,12 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2709,8 +2799,12 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2719,8 +2813,12 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2729,8 +2827,12 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2739,8 +2841,12 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2749,8 +2855,12 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2759,8 +2869,12 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2769,8 +2883,12 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2779,6 +2897,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771AD7E8-1A75-4E32-A8B0-BD13ECA42556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06870E4-7F7F-4FA2-A61B-2ADBDFBC9097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,14 +164,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2016,7 +2015,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2568,16 +2567,16 @@
       <c r="H29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2591,7 +2590,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f>J30+L30</f>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -2605,8 +2604,12 @@
       <c r="J30" s="1">
         <v>50</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06870E4-7F7F-4FA2-A61B-2ADBDFBC9097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A0207-B37E-4840-8F27-7957D80EC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2587,7 +2587,9 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>80</v>
+      </c>
       <c r="D30" s="1">
         <f>J30+L30</f>
         <v>92</v>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A0207-B37E-4840-8F27-7957D80EC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209152F-46E4-4B45-BF42-B9927C6B54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2614,18 +2614,37 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1">
+        <f>J31+L31</f>
+        <v>96</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>46</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209152F-46E4-4B45-BF42-B9927C6B54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79274C6A-839C-480B-A716-57E5D1B51AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2647,18 +2647,37 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1">
+        <f>J32+L32</f>
+        <v>80</v>
+      </c>
+      <c r="E32" s="1">
+        <v>84</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>50</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79274C6A-839C-480B-A716-57E5D1B51AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2F0187-34B0-4C19-B5D3-710F3466339D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2680,18 +2680,37 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1">
+        <f>J33+L33</f>
+        <v>76</v>
+      </c>
+      <c r="E33" s="1">
+        <v>84</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>40</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2F0187-34B0-4C19-B5D3-710F3466339D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C2979-E5F2-4DCF-93E0-3985C8F4D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -96,6 +96,13 @@
     <t>得点</t>
     <rPh sb="0" eb="2">
       <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やり直し</t>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2012,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2352,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>2023</v>
       </c>
@@ -2378,7 +2385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>2023</v>
       </c>
@@ -2400,7 +2407,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>2024</v>
       </c>
@@ -2422,7 +2429,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>2024</v>
       </c>
@@ -2444,7 +2451,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>2024</v>
       </c>
@@ -2464,7 +2471,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>2023</v>
       </c>
@@ -2484,7 +2491,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>2024</v>
       </c>
@@ -2506,7 +2513,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>2024</v>
       </c>
@@ -2528,7 +2535,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3">
@@ -2541,8 +2548,11 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2579,8 +2589,20 @@
       <c r="L29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -2612,8 +2634,12 @@
       <c r="L30" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>2021</v>
       </c>
@@ -2645,8 +2671,12 @@
       <c r="L31" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -2678,8 +2708,16 @@
       <c r="L32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>46</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -2711,8 +2749,12 @@
       <c r="L33" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2725,8 +2767,12 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2739,8 +2785,12 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2753,8 +2803,12 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2767,8 +2821,12 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2781,8 +2839,12 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2795,8 +2857,12 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2809,8 +2875,12 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2823,8 +2893,12 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2837,8 +2911,12 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2851,8 +2929,12 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2865,8 +2947,12 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2879,8 +2965,12 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2893,8 +2983,12 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2907,8 +3001,12 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2921,8 +3019,12 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2935,8 +3037,12 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2949,8 +3055,12 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2963,6 +3073,10 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C2979-E5F2-4DCF-93E0-3985C8F4D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4ABB8-4F7D-433A-96D7-F4247B47C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="13">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2755,18 +2755,37 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1">
+        <f>J34+L34</f>
+        <v>92</v>
+      </c>
+      <c r="E34" s="1">
+        <v>87</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>42</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>50</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4ABB8-4F7D-433A-96D7-F4247B47C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B34BE-231D-44F1-9F39-B743EDB60DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2792,38 +2792,78 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1">
+        <f>J35+L35</f>
+        <v>78</v>
+      </c>
+      <c r="E35" s="1">
+        <v>94</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>38</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>40</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1">
+        <f>J36+L36</f>
+        <v>83</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>39</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>44</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>50</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B34BE-231D-44F1-9F39-B743EDB60DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8100062A-AB80-4B3C-A0E4-843A703C1345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2019,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2359,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>2023</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>2023</v>
       </c>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>2024</v>
       </c>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>2024</v>
       </c>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>2024</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>2023</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>2024</v>
       </c>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>2024</v>
       </c>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3">
@@ -2551,8 +2551,11 @@
       <c r="M28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2601,8 +2604,20 @@
       <c r="P29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -2613,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <f>J30+L30</f>
+        <f t="shared" ref="D30:D36" si="0">J30+L30</f>
         <v>92</v>
       </c>
       <c r="E30" s="1">
@@ -2638,8 +2653,12 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>2021</v>
       </c>
@@ -2650,7 +2669,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="1">
-        <f>J31+L31</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="E31" s="1">
@@ -2675,8 +2694,12 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -2687,7 +2710,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <f>J32+L32</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E32" s="1">
@@ -2716,8 +2739,12 @@
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <f>J33+L33</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E33" s="1">
@@ -2753,8 +2780,12 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>2022</v>
       </c>
@@ -2765,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="1">
-        <f>J34+L34</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="E34" s="1">
@@ -2790,8 +2821,12 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>2023</v>
       </c>
@@ -2802,7 +2837,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <f>J35+L35</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E35" s="1">
@@ -2827,8 +2862,20 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>94</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>2023</v>
       </c>
@@ -2839,7 +2886,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="1">
-        <f>J36+L36</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="E36" s="1"/>
@@ -2866,8 +2913,12 @@
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2884,8 +2935,12 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2902,8 +2957,12 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2920,8 +2979,12 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2938,8 +3001,12 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2956,8 +3023,12 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2974,8 +3045,12 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2992,8 +3067,12 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3010,8 +3089,12 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3028,8 +3111,12 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3046,8 +3133,12 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3064,8 +3155,12 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3082,8 +3177,12 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3100,8 +3199,12 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3118,8 +3221,12 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3136,6 +3243,10 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8100062A-AB80-4B3C-A0E4-843A703C1345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2CA63-1085-47F4-A7E6-6DD8D911FC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="13">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2628,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30:D36" si="0">J30+L30</f>
+        <f t="shared" ref="D30:D37" si="0">J30+L30</f>
         <v>92</v>
       </c>
       <c r="E30" s="1">
@@ -2919,18 +2919,35 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>40</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>37</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2CA63-1085-47F4-A7E6-6DD8D911FC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CEFD37-F298-4E09-9A01-1DDB575422B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2022,7 +2022,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2628,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30:D37" si="0">J30+L30</f>
+        <f t="shared" ref="D30:D38" si="0">J30+L30</f>
         <v>92</v>
       </c>
       <c r="E30" s="1">
@@ -2958,18 +2958,35 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>33</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>40</v>
+      </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CEFD37-F298-4E09-9A01-1DDB575422B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D46EE-7603-4EAD-BB77-05D0AE69C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
-    <sheet name="リンク" sheetId="2" r:id="rId2"/>
+    <sheet name="問題分析" sheetId="3" r:id="rId2"/>
+    <sheet name="リンク" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -103,6 +104,267 @@
     <t>やり直し</t>
     <rPh sb="2" eb="3">
       <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1はパット理解しやすい問題だった。3は知らないと解けない問題が多かった。2はインフラ系。総合で見れば得意分野ということみたい。4は自由度高い問題。点数はとれてなかったが。。。</t>
+    <rPh sb="5" eb="7">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>トクイブンヤ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ジユウド</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題の質にも左右される。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1の問題は問題でも抽象度が低かった感触がある</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウショウド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3の問題は、まず問題の内容を理解する、問題の解答を理解するの順に進める必要がある</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年の分析</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2の問題自体は、若干抽象度が高い問題でもあったが、問題文の理解はしやすかった。</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>チュウショウド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避けた方が良い問題：</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 文章が仕様書や複数文章の読み替えが必要となる</t>
+    <rPh sb="3" eb="5">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 問題に"どんな”というような言葉が続いている</t>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 文章としての得意はインフラ系。</t>
+    <rPh sb="3" eb="5">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 表が沢山出てくる問題は、複数情報を読み比べる可能性高い</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,11 +433,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2021,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3301,6 +3566,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEC357A-7F99-4577-9981-AF7E8DBF6321}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E751920-91DD-4275-8CD4-06BAF10453F1}">
   <dimension ref="B2:C2"/>
   <sheetViews>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D46EE-7603-4EAD-BB77-05D0AE69C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128F670-CE89-4202-8733-7F9CE1148A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14610" yWindow="0" windowWidth="14040" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -227,16 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2024年の分析</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2の問題自体は、若干抽象度が高い問題でもあったが、問題文の理解はしやすかった。</t>
     <rPh sb="2" eb="4">
       <t>モンダイ</t>
@@ -365,6 +355,210 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年秋の分析</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年春の分析</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:インフラ。問題よくわかった。DPCが分からなかった。部分点なしだったため悪くなったか</t>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ブブンテン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:知識問題が解けてなかった。-allの下り。そのほかメールの属性を正しく理解している必要あり。こんなかでは相性悪い</t>
+    <rPh sb="2" eb="6">
+      <t>チシキモンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:問題よく読めば対処可能だった。ただし、本番だったらギャンブルチックな感じがする</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:問題長いが、問題自体はオーソドックス。この中で一番とくべき。知識問題も少な目。</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>チシキモンダイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回は問題が抽象度高い、問題にデータのいったり来たりは避けるべきがあった</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チュウショウド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その上で、知識問題が多い場合は少し注意した方が良い。問題のはじめに目を通すことはしておくべき。解けそうなら選択する</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3567,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEC357A-7F99-4577-9981-AF7E8DBF6321}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3617,9 +3811,29 @@
         <v>32</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3644,32 +3858,67 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128F670-CE89-4202-8733-7F9CE1148A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969FC67-0F46-4B71-B5E6-9000F86F36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="0" windowWidth="14040" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -2480,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3087,7 +3087,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30:D38" si="0">J30+L30</f>
+        <f t="shared" ref="D30:D39" si="0">J30+L30</f>
         <v>92</v>
       </c>
       <c r="E30" s="1">
@@ -3456,18 +3456,35 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>84</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>29</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>40</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3763,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEC357A-7F99-4577-9981-AF7E8DBF6321}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/2025/past_problems/進捗管理.xlsx
+++ b/2025/past_problems/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\ForRealWork\security_specialist\2025\past_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969FC67-0F46-4B71-B5E6-9000F86F36F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820ABA86-664D-4F43-BBEA-5766F0C45C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-600" yWindow="540" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -591,12 +591,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -627,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -637,6 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2480,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3780,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEC357A-7F99-4577-9981-AF7E8DBF6321}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" activeCellId="1" sqref="F5 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3846,6 +3853,26 @@
       </c>
       <c r="F4">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
